--- a/notes/day5-testing and backend refinement Ecommerce Marketplace/day5-testing and backend refinement Ecommerce Marketplace.xlsx
+++ b/notes/day5-testing and backend refinement Ecommerce Marketplace/day5-testing and backend refinement Ecommerce Marketplace.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Testing_Report_Sample" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -107,21 +106,9 @@
     <t>low</t>
   </si>
   <si>
-    <t>Enter large text or queries</t>
-  </si>
-  <si>
     <t>Sanitation | error on unexpected input</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Test failed</t>
-  </si>
-  <si>
     <t>Traffic request</t>
   </si>
   <si>
@@ -146,9 +133,6 @@
     <t>Form sanitation and validation</t>
   </si>
   <si>
-    <t>functionality isn't implemented yet</t>
-  </si>
-  <si>
     <t>Cart working end to end with user friendly message</t>
   </si>
   <si>
@@ -156,6 +140,18 @@
   </si>
   <si>
     <t>No sensitive or unexpected response</t>
+  </si>
+  <si>
+    <t>Enter large text or queries, or wrong data</t>
+  </si>
+  <si>
+    <t>Getting error messages on unexpected input</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Test passed</t>
   </si>
 </sst>
 </file>
@@ -665,12 +661,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1016,225 +1021,225 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
+      <c r="H7" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
